--- a/va_facility_data_2025-02-20/Wisconsin Rapids VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wisconsin%20Rapids%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wisconsin Rapids VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wisconsin%20Rapids%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc3f1a139e4344bef949dd33c2a0d4c86"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfcd232c6631443f886bd04e32e35bc98"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra66b0cc9e74146c1be17646277711797"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R75f4f9cf6d3d449db00f80c5822a623f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7777cc12f4ca4516841b4b31a493dc1a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc13b571910134a2981876602bbcaf4a6"/>
   </x:sheets>
 </x:workbook>
 </file>
